--- a/weightings.xlsx
+++ b/weightings.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\repos\whereshouldweb3goforlunch-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\github\whereshouldweb3goforlunch\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E17847-9E09-4C31-BFDD-117AE0FBB329}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Location</t>
   </si>
@@ -50,9 +56,6 @@
     <t>Blue Bear</t>
   </si>
   <si>
-    <t>Coro</t>
-  </si>
-  <si>
     <t>Lezzetli</t>
   </si>
   <si>
@@ -81,13 +84,40 @@
   </si>
   <si>
     <t>Di Giorgio</t>
+  </si>
+  <si>
+    <t>Damian</t>
+  </si>
+  <si>
+    <t>M&amp;S</t>
+  </si>
+  <si>
+    <t>Caffeine</t>
+  </si>
+  <si>
+    <t>Finnegans</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Istvan</t>
+  </si>
+  <si>
+    <t>Stuart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +138,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,12 +167,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,260 +494,621 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E1:E16"/>
+      <selection activeCell="A2" sqref="A2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="7">
+        <f>SUM(C2:R2)/COUNT(C2:R2)</f>
+        <v>0.3125</v>
+      </c>
+      <c r="C2" s="3">
         <v>0.45</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>0.25</v>
       </c>
-      <c r="D2" s="4">
-        <f>SUM(B2:C2)/COUNT(B2:C2)</f>
+      <c r="E2" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="H2" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I2" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
-        <v>0.1</v>
+      <c r="B3" s="7">
+        <f t="shared" ref="B3:B17" si="0">SUM(C3:R3)/COUNT(C3:R3)</f>
+        <v>5.8750000000000004E-2</v>
       </c>
       <c r="C3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="3">
         <v>0.15</v>
       </c>
-      <c r="D3" s="4">
-        <f t="shared" ref="D3:D15" si="0">SUM(B3:C3)/COUNT(B3:C3)</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.05</v>
+      <c r="B4" s="7">
+        <f t="shared" si="0"/>
+        <v>5.7500000000000009E-2</v>
       </c>
       <c r="C4" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="3">
         <v>0.09</v>
       </c>
-      <c r="D4" s="4">
-        <f t="shared" si="0"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="7">
+        <f t="shared" si="0"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="C5" s="3">
         <v>0.12</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>0.09</v>
       </c>
-      <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3">
+        <v>17</v>
+      </c>
+      <c r="B6" s="7">
+        <f t="shared" si="0"/>
+        <v>4.9375000000000002E-2</v>
+      </c>
+      <c r="C6" s="3">
         <v>0.12</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="7">
+        <f t="shared" si="0"/>
+        <v>8.3125000000000018E-2</v>
+      </c>
+      <c r="C7" s="3">
         <v>0.02</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>4.5000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.05</v>
+        <v>14</v>
+      </c>
+      <c r="B8" s="7">
+        <f t="shared" si="0"/>
+        <v>4.3749999999999997E-2</v>
       </c>
       <c r="C8" s="3">
         <v>0.05</v>
       </c>
-      <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="7">
+        <f t="shared" si="0"/>
+        <v>4.8749999999999995E-2</v>
+      </c>
+      <c r="C9" s="3">
         <v>0.01</v>
       </c>
-      <c r="C9" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>0.01</v>
+      <c r="B10" s="7">
+        <f t="shared" si="0"/>
+        <v>4.7499999999999994E-2</v>
       </c>
       <c r="C10" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.03</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="7">
+        <f t="shared" si="0"/>
+        <v>4.1250000000000009E-2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="3">
         <v>0.03</v>
       </c>
-      <c r="C11" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="7">
+        <f t="shared" si="0"/>
+        <v>2.375E-2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="7">
+        <f t="shared" si="0"/>
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
         <v>0.01</v>
       </c>
-      <c r="C12" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="E13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0</v>
+      <c r="B14" s="7">
+        <f t="shared" si="0"/>
+        <v>4.8750000000000009E-2</v>
       </c>
       <c r="C14" s="3">
         <v>0.01</v>
       </c>
-      <c r="D14" s="4">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3">
+      <c r="D14" s="3">
         <v>0.01</v>
       </c>
-      <c r="C15" s="3">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="I14" s="3">
         <v>0.01</v>
       </c>
-      <c r="D15" s="4">
-        <f t="shared" si="0"/>
+      <c r="J14" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="7">
+        <f t="shared" si="0"/>
+        <v>3.1249999999999997E-2</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="7">
+        <f t="shared" si="0"/>
+        <v>2.8750000000000001E-2</v>
+      </c>
+      <c r="C16" s="6">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <f>SUM(B2:B15)</f>
+      <c r="D16" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="7">
+        <f t="shared" si="0"/>
+        <v>2.375E-2</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <f>SUM(B2:B17)</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <f>SUM(C2:C17)</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="C16" s="3">
-        <f t="shared" ref="C16:D16" si="1">SUM(C2:C15)</f>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:J18" si="1">SUM(D2:D17)</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E18" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
+      <c r="F18" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="J18" s="3">
+        <f>SUM(J2:J17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
